--- a/biology/Médecine/Rétinaculum_des_muscles_fléchisseurs_du_pied/Rétinaculum_des_muscles_fléchisseurs_du_pied.xlsx
+++ b/biology/Médecine/Rétinaculum_des_muscles_fléchisseurs_du_pied/Rétinaculum_des_muscles_fléchisseurs_du_pied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum_des_muscles_fl%C3%A9chisseurs_du_pied</t>
+          <t>Rétinaculum_des_muscles_fléchisseurs_du_pied</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le rétinaculum des muscles fléchisseurs du pied est une bande fibreuse du membre inférieur. Il est situé sur la face médiale de la cheville.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum_des_muscles_fl%C3%A9chisseurs_du_pied</t>
+          <t>Rétinaculum_des_muscles_fléchisseurs_du_pied</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétinaculum des muscles fléchisseurs du pied descend de la malléole médiale vers le calcanéus.
 Il est en continuité par son bord supérieur avec le fascia crural et par son bord inférieur avec l'aponévrose plantaire. Des fibres du muscle abducteur de l'hallux y prennent origine.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9tinaculum_des_muscles_fl%C3%A9chisseurs_du_pied</t>
+          <t>Rétinaculum_des_muscles_fléchisseurs_du_pied</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une compression peut piéger le nerf tibial et générer un syndrome du canal tarsien. Il se manifeste par une douleur ou un engourdissement de la surface plantaire médiale. Ces symptômes sont aggravés par la position debout et la marche et amplifié durant la nuit[1]. Le diagnostic peut être corroboré par la recherche du signe de Tinel par tapotement de la partie du rétinaculum fléchisseur du pied au niveau du nerf tibial.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une compression peut piéger le nerf tibial et générer un syndrome du canal tarsien. Il se manifeste par une douleur ou un engourdissement de la surface plantaire médiale. Ces symptômes sont aggravés par la position debout et la marche et amplifié durant la nuit. Le diagnostic peut être corroboré par la recherche du signe de Tinel par tapotement de la partie du rétinaculum fléchisseur du pied au niveau du nerf tibial.
 </t>
         </is>
       </c>
